--- a/backend-PAF-main/historial.xlsx
+++ b/backend-PAF-main/historial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Run</t>
   </si>
@@ -82,103 +82,472 @@
     <t>SemestreInicioPaf</t>
   </si>
   <si>
-    <t>12345678-9</t>
-  </si>
-  <si>
-    <t>2024-03-01</t>
-  </si>
-  <si>
-    <t>2024-07-15</t>
-  </si>
-  <si>
-    <t>MAT101</t>
-  </si>
-  <si>
-    <t>Matemáticas I</t>
-  </si>
-  <si>
-    <t>Titular</t>
-  </si>
-  <si>
-    <t>Tiempo Completo</t>
-  </si>
-  <si>
-    <t>2024-1</t>
-  </si>
-  <si>
-    <t>Activo</t>
-  </si>
-  <si>
-    <t>En Proceso</t>
-  </si>
-  <si>
-    <t>Teórico</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>2025-03-03 12:41:38</t>
+    <t>29173299</t>
+  </si>
+  <si>
+    <t>2025-02-06</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>11182</t>
+  </si>
+  <si>
+    <t>INGLÉS COMUNICATIVO III</t>
+  </si>
+  <si>
+    <t>INSTR  II</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>01-25</t>
+  </si>
+  <si>
+    <t>Aprobada por Validador</t>
+  </si>
+  <si>
+    <t>C1D</t>
+  </si>
+  <si>
+    <t>2025-01</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>S-119</t>
+  </si>
+  <si>
+    <t>0001-01-01 00:00:00</t>
   </si>
   <si>
     <t>Sin comentarios</t>
   </si>
   <si>
-    <t>ABC123</t>
-  </si>
-  <si>
-    <t>34567890-1</t>
-  </si>
-  <si>
-    <t>QUI103</t>
-  </si>
-  <si>
-    <t>Química III</t>
-  </si>
-  <si>
-    <t>Instructor</t>
-  </si>
-  <si>
-    <t>Tiempo Parcial</t>
-  </si>
-  <si>
-    <t>Finalizado</t>
-  </si>
-  <si>
-    <t>Rechazado</t>
-  </si>
-  <si>
-    <t>Laboratorio</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>Correcciones pendientes</t>
-  </si>
-  <si>
-    <t>GHI789</t>
-  </si>
-  <si>
-    <t>45678901-2</t>
-  </si>
-  <si>
-    <t>BIO104</t>
-  </si>
-  <si>
-    <t>Biología IV</t>
-  </si>
-  <si>
-    <t>Teórico-Práctico</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>Asignatura con alta demanda</t>
-  </si>
-  <si>
-    <t>JKL012</t>
+    <t>29173299-70000011778</t>
+  </si>
+  <si>
+    <t>15420925</t>
+  </si>
+  <si>
+    <t>2024-02-15</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>16140</t>
+  </si>
+  <si>
+    <t>HIDROMETALURGIA</t>
+  </si>
+  <si>
+    <t>INSTR  I</t>
+  </si>
+  <si>
+    <t>01-24</t>
+  </si>
+  <si>
+    <t>Enviada al Interesado</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>2024-01</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>T-52</t>
+  </si>
+  <si>
+    <t>15420925-70000001474</t>
+  </si>
+  <si>
+    <t>24861375</t>
+  </si>
+  <si>
+    <t>2025-01-27</t>
+  </si>
+  <si>
+    <t>57116</t>
+  </si>
+  <si>
+    <t>TOPOGRAFÍA</t>
+  </si>
+  <si>
+    <t>Rechazada por Dir. de Pregrado</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>V-925</t>
+  </si>
+  <si>
+    <t>Hola</t>
+  </si>
+  <si>
+    <t>24861375-90000026979</t>
+  </si>
+  <si>
+    <t>26553353</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>81362</t>
+  </si>
+  <si>
+    <t>INTERNADO DE MEDICINA INTERNA</t>
+  </si>
+  <si>
+    <t>Rechazada por Validador</t>
+  </si>
+  <si>
+    <t>C9D</t>
+  </si>
+  <si>
+    <t>G-21</t>
+  </si>
+  <si>
+    <t>26553353-70000003613</t>
+  </si>
+  <si>
+    <t>24107338</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>11181</t>
+  </si>
+  <si>
+    <t>EVALUACIÓN DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>AYUD PROFE</t>
+  </si>
+  <si>
+    <t>Anulada</t>
+  </si>
+  <si>
+    <t>M-222</t>
+  </si>
+  <si>
+    <t>24107338-80000006262</t>
+  </si>
+  <si>
+    <t>12571092</t>
+  </si>
+  <si>
+    <t>2024-01-09</t>
+  </si>
+  <si>
+    <t>10123</t>
+  </si>
+  <si>
+    <t>ECUACIONES DIFERENCIALES Y METODOS NUMERICOS PARA INGENIERIA</t>
+  </si>
+  <si>
+    <t>C-88</t>
+  </si>
+  <si>
+    <t>12571092-60000006097</t>
+  </si>
+  <si>
+    <t>27591590</t>
+  </si>
+  <si>
+    <t>2024-01-07</t>
+  </si>
+  <si>
+    <t>11167</t>
+  </si>
+  <si>
+    <t>REGULACIÓN Y SEGURIDAD ELÉCTRICA</t>
+  </si>
+  <si>
+    <t>INSTR I</t>
+  </si>
+  <si>
+    <t>Enviada al Validador</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>I-060</t>
+  </si>
+  <si>
+    <t>27591590-50000006495</t>
+  </si>
+  <si>
+    <t>26525705</t>
+  </si>
+  <si>
+    <t>2025-02-14</t>
+  </si>
+  <si>
+    <t>14134</t>
+  </si>
+  <si>
+    <t>ESTADÍSTICA APLICADA</t>
+  </si>
+  <si>
+    <t>E-C2</t>
+  </si>
+  <si>
+    <t>Sección incorrecta</t>
+  </si>
+  <si>
+    <t>26525705-80000002772</t>
+  </si>
+  <si>
+    <t>10676830</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>22603</t>
+  </si>
+  <si>
+    <t>COMPUTACIÓN I</t>
+  </si>
+  <si>
+    <t>T-V32</t>
+  </si>
+  <si>
+    <t>10676830-60000001281</t>
+  </si>
+  <si>
+    <t>18281809</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>42223</t>
+  </si>
+  <si>
+    <t>LA ESCRITURA Y SU ENSEÑANZA</t>
+  </si>
+  <si>
+    <t>ADJUN II</t>
+  </si>
+  <si>
+    <t>B-22</t>
+  </si>
+  <si>
+    <t>18281809-20000001514</t>
+  </si>
+  <si>
+    <t>17346247</t>
+  </si>
+  <si>
+    <t>2025-01-29</t>
+  </si>
+  <si>
+    <t>81347</t>
+  </si>
+  <si>
+    <t>NUTRICIÓN</t>
+  </si>
+  <si>
+    <t>Sin Solicitar</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>E-025</t>
+  </si>
+  <si>
+    <t>17346247-90000002093</t>
+  </si>
+  <si>
+    <t>10679435</t>
+  </si>
+  <si>
+    <t>2025-01-30</t>
+  </si>
+  <si>
+    <t>52046</t>
+  </si>
+  <si>
+    <t>SEMINARIO DE TITULACIÓN</t>
+  </si>
+  <si>
+    <t>M-626</t>
+  </si>
+  <si>
+    <t>10679435-10000004163</t>
+  </si>
+  <si>
+    <t>13448973</t>
+  </si>
+  <si>
+    <t>2025-02-08</t>
+  </si>
+  <si>
+    <t>11157</t>
+  </si>
+  <si>
+    <t>REDES ELÉCTRICAS I</t>
+  </si>
+  <si>
+    <t>M-05</t>
+  </si>
+  <si>
+    <t>13448973-60000003212</t>
+  </si>
+  <si>
+    <t>13028874</t>
+  </si>
+  <si>
+    <t>2024-08-17</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>90065</t>
+  </si>
+  <si>
+    <t>BIOQUÍMICA</t>
+  </si>
+  <si>
+    <t>ADJUN  I</t>
+  </si>
+  <si>
+    <t>02-24</t>
+  </si>
+  <si>
+    <t>2024-02</t>
+  </si>
+  <si>
+    <t>M-610</t>
+  </si>
+  <si>
+    <t>13028874-30000009797</t>
+  </si>
+  <si>
+    <t>2024-08-30</t>
+  </si>
+  <si>
+    <t>H1669</t>
+  </si>
+  <si>
+    <t>METODOLOGIA CUALITATIVA I</t>
+  </si>
+  <si>
+    <t>B-035</t>
+  </si>
+  <si>
+    <t>17346247-90000018578</t>
+  </si>
+  <si>
+    <t>2024-09-01</t>
+  </si>
+  <si>
+    <t>352401</t>
+  </si>
+  <si>
+    <t>MATEMÁTICAS PARA LA ADMINISTRACIÓN Y ECONOMÍA I</t>
+  </si>
+  <si>
+    <t>17346247-90000008797</t>
+  </si>
+  <si>
+    <t>10414323</t>
+  </si>
+  <si>
+    <t>2025-02-11</t>
+  </si>
+  <si>
+    <t>94023</t>
+  </si>
+  <si>
+    <t>O-414</t>
+  </si>
+  <si>
+    <t>10414323-70000001548</t>
+  </si>
+  <si>
+    <t>20168079</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>50090</t>
+  </si>
+  <si>
+    <t>MERCADOS AGRICOLAS DE FUTURO</t>
+  </si>
+  <si>
+    <t>M-940</t>
+  </si>
+  <si>
+    <t>20168079-50000001274</t>
+  </si>
+  <si>
+    <t>351508</t>
+  </si>
+  <si>
+    <t>MATEMÁTICAS PARA LA ADMINISTRACIÓN Y ECONOMÍA II</t>
+  </si>
+  <si>
+    <t>Comentario de prueba</t>
+  </si>
+  <si>
+    <t>20168079-50000009817</t>
+  </si>
+  <si>
+    <t>22910109</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>10101</t>
+  </si>
+  <si>
+    <t>CÁLCULO I PARA INGENIERÍA</t>
+  </si>
+  <si>
+    <t>D-012</t>
+  </si>
+  <si>
+    <t>22910109-30000012950</t>
+  </si>
+  <si>
+    <t>17361636</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>67118</t>
+  </si>
+  <si>
+    <t>PREVENCIÓN DE RIESGOS</t>
+  </si>
+  <si>
+    <t>Z-029</t>
+  </si>
+  <si>
+    <t>17361636-60000001595</t>
   </si>
 </sst>
 </file>
@@ -561,7 +930,7 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>11778</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
@@ -576,7 +945,7 @@
         <v>26</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
@@ -597,122 +966,122 @@
         <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1474</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="R3">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="U3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="V3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>26979</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -724,40 +1093,1264 @@
         <v>29</v>
       </c>
       <c r="K4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4">
+        <v>48</v>
+      </c>
+      <c r="S4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>3613</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5">
+        <v>38</v>
+      </c>
+      <c r="S5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>6262</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6">
+        <v>16</v>
+      </c>
+      <c r="S6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" t="s">
+        <v>76</v>
+      </c>
+      <c r="V6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>6097</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7">
+        <v>29</v>
+      </c>
+      <c r="S7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8">
+        <v>6495</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>90</v>
+      </c>
+      <c r="R8">
+        <v>37</v>
+      </c>
+      <c r="S8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" t="s">
+        <v>91</v>
+      </c>
+      <c r="V8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9">
+        <v>2772</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9">
+        <v>57</v>
+      </c>
+      <c r="S9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" t="s">
+        <v>97</v>
+      </c>
+      <c r="U9" t="s">
+        <v>98</v>
+      </c>
+      <c r="V9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10">
+        <v>1281</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
         <v>30</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L10" t="s">
         <v>31</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
         <v>48</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>103</v>
+      </c>
+      <c r="R10">
+        <v>11</v>
+      </c>
+      <c r="S10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" t="s">
+        <v>104</v>
+      </c>
+      <c r="V10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11">
+        <v>1514</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
         <v>29</v>
       </c>
-      <c r="O4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4">
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11" t="s">
         <v>35</v>
       </c>
-      <c r="S4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T4" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" t="s">
-        <v>54</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="T11" t="s">
+        <v>36</v>
+      </c>
+      <c r="U11" t="s">
+        <v>111</v>
+      </c>
+      <c r="V11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12">
+        <v>2093</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
         <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="s">
+        <v>112</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>118</v>
+      </c>
+      <c r="R12">
+        <v>47</v>
+      </c>
+      <c r="S12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" t="s">
+        <v>119</v>
+      </c>
+      <c r="V12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13">
+        <v>4163</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>124</v>
+      </c>
+      <c r="R13">
+        <v>55</v>
+      </c>
+      <c r="S13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" t="s">
+        <v>125</v>
+      </c>
+      <c r="V13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14">
+        <v>3212</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>130</v>
+      </c>
+      <c r="R14">
+        <v>40</v>
+      </c>
+      <c r="S14" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" t="s">
+        <v>131</v>
+      </c>
+      <c r="V14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15">
+        <v>9797</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" t="s">
+        <v>132</v>
+      </c>
+      <c r="N15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>140</v>
+      </c>
+      <c r="R15">
+        <v>27</v>
+      </c>
+      <c r="S15" t="s">
+        <v>35</v>
+      </c>
+      <c r="T15" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" t="s">
+        <v>141</v>
+      </c>
+      <c r="V15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16">
+        <v>18578</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" t="s">
+        <v>112</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>145</v>
+      </c>
+      <c r="R16">
+        <v>18</v>
+      </c>
+      <c r="S16" t="s">
+        <v>35</v>
+      </c>
+      <c r="T16" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" t="s">
+        <v>146</v>
+      </c>
+      <c r="V16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17">
+        <v>8797</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" t="s">
+        <v>112</v>
+      </c>
+      <c r="N17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>145</v>
+      </c>
+      <c r="R17">
+        <v>18</v>
+      </c>
+      <c r="S17" t="s">
+        <v>35</v>
+      </c>
+      <c r="T17" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" t="s">
+        <v>150</v>
+      </c>
+      <c r="V17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18">
+        <v>1548</v>
+      </c>
+      <c r="C18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" t="s">
+        <v>151</v>
+      </c>
+      <c r="N18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>154</v>
+      </c>
+      <c r="R18">
+        <v>38</v>
+      </c>
+      <c r="S18" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" t="s">
+        <v>36</v>
+      </c>
+      <c r="U18" t="s">
+        <v>155</v>
+      </c>
+      <c r="V18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19">
+        <v>1274</v>
+      </c>
+      <c r="C19" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" t="s">
+        <v>156</v>
+      </c>
+      <c r="N19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>160</v>
+      </c>
+      <c r="R19">
+        <v>20</v>
+      </c>
+      <c r="S19" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" t="s">
+        <v>161</v>
+      </c>
+      <c r="V19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20">
+        <v>9817</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" t="s">
+        <v>156</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" t="s">
+        <v>57</v>
+      </c>
+      <c r="P20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>160</v>
+      </c>
+      <c r="R20">
+        <v>20</v>
+      </c>
+      <c r="S20" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" t="s">
+        <v>164</v>
+      </c>
+      <c r="U20" t="s">
+        <v>165</v>
+      </c>
+      <c r="V20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21">
+        <v>12950</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" t="s">
+        <v>166</v>
+      </c>
+      <c r="N21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>170</v>
+      </c>
+      <c r="R21">
+        <v>45</v>
+      </c>
+      <c r="S21" t="s">
+        <v>35</v>
+      </c>
+      <c r="T21" t="s">
+        <v>36</v>
+      </c>
+      <c r="U21" t="s">
+        <v>171</v>
+      </c>
+      <c r="V21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22">
+        <v>1595</v>
+      </c>
+      <c r="C22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" t="s">
+        <v>172</v>
+      </c>
+      <c r="N22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>176</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s">
+        <v>35</v>
+      </c>
+      <c r="T22" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" t="s">
+        <v>177</v>
+      </c>
+      <c r="V22" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
